--- a/Product/2B/功能列表2B.xlsx
+++ b/Product/2B/功能列表2B.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chandler.Pang/Documents/Neon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chandler.Pang/Documents/Neon/Github/https---github.com-chandler-pang-Neon.git/Product/2B/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>功能区</t>
   </si>
@@ -179,14 +179,36 @@
     <t>销售统计</t>
   </si>
   <si>
-    <t>1、单店、全店区分；
-2、日、月、季度；</t>
-  </si>
-  <si>
-    <t>列表</t>
-  </si>
-  <si>
     <t>收银</t>
+  </si>
+  <si>
+    <t>1、页面默认显示订单流水；
+2、日期区间列表查询；</t>
+  </si>
+  <si>
+    <t>列表&amp;详细</t>
+  </si>
+  <si>
+    <t>统计</t>
+  </si>
+  <si>
+    <t>1、“时间区间“+”品类“销售统计
+2、饼状图表示</t>
+  </si>
+  <si>
+    <t>1、“时间区间”+“人员”销售统计；
+2、趋势图表示；</t>
+  </si>
+  <si>
+    <t>1、“时间区间”+“店名”销售统计
+2、趋势图表示；</t>
+  </si>
+  <si>
+    <t>优惠统计</t>
+  </si>
+  <si>
+    <t>1、“时间区间“+”人员“分类统计；
+2、进度图统计</t>
   </si>
 </sst>
 </file>
@@ -264,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -318,7 +340,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -336,43 +358,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -590,6 +582,56 @@
         <color auto="1"/>
       </top>
       <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -598,71 +640,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -674,9 +710,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -686,52 +719,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -755,44 +755,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -805,6 +796,72 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,10 +1143,10 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1104,561 +1161,576 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="53" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="55" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="57" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="55" t="s">
+      <c r="C7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42" t="s">
+      <c r="E11" s="29"/>
+      <c r="F11" s="30" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="44"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="54" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="40" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="46"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="54" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
+    <row r="31" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A31" s="55"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
+    <row r="32" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A32" s="55"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
+    <row r="33" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A33" s="55"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
+    <row r="34" spans="1:8" ht="37" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="75"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A41" s="50"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="52"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="53"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B10:B14"/>
